--- a/result/freq.xlsx
+++ b/result/freq.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamada/products/sufbo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamada/products/sufbo/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19723,11 +19723,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1165629856"/>
-        <c:axId val="-1139787184"/>
+        <c:axId val="-1987585840"/>
+        <c:axId val="-1987583792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1165629856"/>
+        <c:axId val="-1987585840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19737,7 +19737,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1139787184"/>
+        <c:crossAx val="-1987583792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19745,7 +19745,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1139787184"/>
+        <c:axId val="-1987583792"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -19756,7 +19756,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1165629856"/>
+        <c:crossAx val="-1987585840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19785,10 +19785,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -19823,15 +19823,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="31750">
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
               <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="2"/>
             <c:spPr>
-              <a:ln w="3175">
-                <a:noFill/>
+              <a:noFill/>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -39392,26 +39403,42 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1165458624"/>
-        <c:axId val="-1165521536"/>
+        <c:axId val="-1986275680"/>
+        <c:axId val="-1986271920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1165458624"/>
+        <c:axId val="-1986275680"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:tint val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
                     <a:latin typeface="Times New Roman" charset="0"/>
                     <a:ea typeface="Times New Roman" charset="0"/>
                     <a:cs typeface="Times New Roman" charset="0"/>
@@ -39442,16 +39469,56 @@
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" charset="0"/>
+                  <a:ea typeface="Times New Roman" charset="0"/>
+                  <a:cs typeface="Times New Roman" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
                 <a:latin typeface="Times New Roman" charset="0"/>
                 <a:ea typeface="Times New Roman" charset="0"/>
                 <a:cs typeface="Times New Roman" charset="0"/>
@@ -39460,27 +39527,43 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1165521536"/>
+        <c:crossAx val="-1986271920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1165521536"/>
+        <c:axId val="-1986271920"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:tint val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
                     <a:latin typeface="Times New Roman" charset="0"/>
                     <a:ea typeface="Times New Roman" charset="0"/>
                     <a:cs typeface="Times New Roman" charset="0"/>
@@ -39511,16 +39594,56 @@
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" charset="0"/>
+                  <a:ea typeface="Times New Roman" charset="0"/>
+                  <a:cs typeface="Times New Roman" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
                 <a:latin typeface="Times New Roman" charset="0"/>
                 <a:ea typeface="Times New Roman" charset="0"/>
                 <a:cs typeface="Times New Roman" charset="0"/>
@@ -39529,15 +39652,45 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1165458624"/>
+        <c:crossAx val="-1986275680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -39546,20 +39699,466 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="102">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="95000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="5000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>908050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -39580,16 +40179,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>869950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1098550</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>920750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -39877,7 +40476,7 @@
   <dimension ref="A1:B3256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
